--- a/TimeTable.xlsx
+++ b/TimeTable.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
   <si>
     <t>Time Table</t>
   </si>
@@ -24,9 +24,6 @@
     <t>Nov 5th 2018</t>
   </si>
   <si>
-    <t>Word2Vec</t>
-  </si>
-  <si>
     <t>New York Taxi</t>
   </si>
   <si>
@@ -49,6 +46,12 @@
   </si>
   <si>
     <t>Deep Learning Practice</t>
+  </si>
+  <si>
+    <t>Deep Learning - Word2Vec</t>
+  </si>
+  <si>
+    <t>NLP one topic</t>
   </si>
 </sst>
 </file>
@@ -396,16 +399,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N8:O9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,57 +421,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="B8" t="s">
         <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
